--- a/BenchResults/Benchmark.xlsx
+++ b/BenchResults/Benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitaly\source\repos\KovtunV\NoStringEvaluating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkovtun\source\repos\NoStringEvaluating\BenchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1713938-E47D-4C30-A0D7-AE13636BF244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D949FD96-77BF-4D33-9560-A36D57AD2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -208,6 +220,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,15 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,7 +325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -390,40 +403,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>348</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2205</c:v>
+                  <c:v>1488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2950</c:v>
+                  <c:v>1719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14665</c:v>
+                  <c:v>11540</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1031</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4759</c:v>
+                  <c:v>3814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>783</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2028</c:v>
+                  <c:v>1655</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6669</c:v>
+                  <c:v>5386</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1499</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,40 +514,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>621</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>269</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>612</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>444</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>982</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>384</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,7 +629,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -654,7 +667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1160964608"/>
@@ -737,7 +750,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -769,7 +782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1160963776"/>
@@ -811,7 +824,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -848,7 +861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1710,352 +1723,352 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="G20" s="12" t="s">
+      <c r="E20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="11"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2069,275 +2082,260 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2">
-        <v>367190</v>
+        <v>367188</v>
       </c>
       <c r="G22" s="5">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H22" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2">
-        <v>148530</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>148553</v>
+      </c>
       <c r="G23" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H23" s="2">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>348</v>
+        <v>226</v>
       </c>
       <c r="E24" s="2">
-        <v>273539</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>273561</v>
+      </c>
       <c r="G24" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="H24" s="2">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>2205</v>
+        <v>1488</v>
       </c>
       <c r="E25" s="2">
-        <v>1187738</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>1133085</v>
+      </c>
       <c r="G25" s="2">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="H25" s="2">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>2950</v>
+        <v>1719</v>
       </c>
       <c r="E26" s="2">
-        <v>1719035</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>1656573</v>
+      </c>
       <c r="G26" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="H26" s="2">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>14665</v>
+        <v>11540</v>
       </c>
       <c r="E27" s="2">
-        <v>7008833</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>6954262</v>
+      </c>
       <c r="G27" s="2">
-        <v>621</v>
+        <v>411</v>
       </c>
       <c r="H27" s="2">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>1031</v>
+        <v>641</v>
       </c>
       <c r="E28" s="2">
-        <v>640833</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>609626</v>
+      </c>
       <c r="G28" s="2">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="H28" s="2">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="3">
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>4759</v>
+        <v>3814</v>
       </c>
       <c r="E29" s="2">
-        <v>3305351</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>3305437</v>
+      </c>
       <c r="G29" s="2">
-        <v>612</v>
+        <v>451</v>
       </c>
       <c r="H29" s="2">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="3">
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>783</v>
+        <v>601</v>
       </c>
       <c r="E30" s="2">
-        <v>875137</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>875165</v>
+      </c>
       <c r="G30" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="H30" s="2">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="3">
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>2028</v>
+        <v>1655</v>
       </c>
       <c r="E31" s="2">
-        <v>2234630</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>2234671</v>
+      </c>
       <c r="G31" s="2">
-        <v>444</v>
+        <v>303</v>
       </c>
       <c r="H31" s="2">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="3">
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <v>6669</v>
+        <v>5386</v>
       </c>
       <c r="E32" s="2">
-        <v>9274001</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>9227212</v>
+      </c>
       <c r="G32" s="2">
-        <v>982</v>
+        <v>780</v>
       </c>
       <c r="H32" s="2">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="3">
         <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>1499</v>
+        <v>1246</v>
       </c>
       <c r="E33" s="5">
-        <v>1656466</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>1656506</v>
+      </c>
       <c r="G33" s="2">
-        <v>384</v>
+        <v>262</v>
       </c>
       <c r="H33" s="2">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C19:S19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D17:S17"/>
     <mergeCell ref="D16:S16"/>
     <mergeCell ref="D5:S5"/>
     <mergeCell ref="D6:S6"/>
@@ -2350,6 +2348,11 @@
     <mergeCell ref="D13:S13"/>
     <mergeCell ref="D14:S14"/>
     <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C19:S19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D17:S17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BenchResults/Benchmark.xlsx
+++ b/BenchResults/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkovtun\source\repos\NoStringEvaluating\BenchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D949FD96-77BF-4D33-9560-A36D57AD2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7EEDDC-04DB-4811-9FFA-4F5AF167E47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -220,15 +220,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,7 +233,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,37 +409,37 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1488</c:v>
+                  <c:v>1434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1719</c:v>
+                  <c:v>1630</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11540</c:v>
+                  <c:v>11206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3814</c:v>
+                  <c:v>3676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>601</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1655</c:v>
+                  <c:v>1580</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5386</c:v>
+                  <c:v>5173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1246</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,45 +512,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$22:$G$33</c:f>
+              <c:f>Лист1!$I$22:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>411</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>183</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>451</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>303</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>780</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>262</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,13 +1422,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>422461</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>50705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>593911</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1719,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:S75"/>
+  <dimension ref="B5:U75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1729,360 +1732,394 @@
     <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="2" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="10"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C21" s="13"/>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2092,242 +2129,306 @@
       <c r="E22" s="2">
         <v>367188</v>
       </c>
-      <c r="G22" s="5">
-        <v>43</v>
-      </c>
-      <c r="H22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <f>ROUND(D22/I22, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>41</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E23" s="2">
         <v>148553</v>
       </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>53</v>
-      </c>
-      <c r="H23" s="2">
+        <f t="shared" ref="G23:G33" si="0">ROUND(D23/I23, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>55</v>
+      </c>
+      <c r="J23" s="2">
         <v>4</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E24" s="2">
         <v>273561</v>
       </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
         <v>62</v>
       </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="J24" s="2">
+        <v>4</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>1488</v>
+        <v>1434</v>
       </c>
       <c r="E25" s="2">
         <v>1133085</v>
       </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>126</v>
-      </c>
-      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I25" s="2">
+        <v>110</v>
+      </c>
+      <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>1719</v>
+        <v>1630</v>
       </c>
       <c r="E26" s="2">
         <v>1656573</v>
       </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>129</v>
-      </c>
-      <c r="H26" s="2">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="2">
+        <v>111</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>11540</v>
+        <v>11206</v>
       </c>
       <c r="E27" s="2">
         <v>6954262</v>
       </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>411</v>
-      </c>
-      <c r="H27" s="2">
-        <v>11</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I27" s="2">
+        <v>343</v>
+      </c>
+      <c r="J27" s="2">
+        <v>10</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="E28" s="2">
         <v>609626</v>
       </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2">
-        <v>183</v>
-      </c>
-      <c r="H28" s="2">
-        <v>6</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="2">
+        <v>163</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="3">
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>3814</v>
+        <v>3676</v>
       </c>
       <c r="E29" s="2">
         <v>3305437</v>
       </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>451</v>
-      </c>
-      <c r="H29" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I29" s="2">
+        <v>400</v>
+      </c>
+      <c r="J29" s="2">
+        <v>8</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="3">
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="E30" s="2">
         <v>875165</v>
       </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
         <v>155</v>
       </c>
-      <c r="H30" s="2">
-        <v>6</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="3">
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>1655</v>
+        <v>1580</v>
       </c>
       <c r="E31" s="2">
         <v>2234671</v>
       </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2">
-        <v>303</v>
-      </c>
-      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>305</v>
+      </c>
+      <c r="J31" s="2">
         <v>7</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="3">
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <v>5386</v>
+        <v>5173</v>
       </c>
       <c r="E32" s="2">
         <v>9227212</v>
       </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2">
-        <v>780</v>
-      </c>
-      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I32" s="2">
+        <v>646</v>
+      </c>
+      <c r="J32" s="2">
         <v>11</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="3">
         <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>1246</v>
+        <v>1207</v>
       </c>
       <c r="E33" s="5">
         <v>1656506</v>
       </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="2">
-        <v>262</v>
-      </c>
-      <c r="H33" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>252</v>
+      </c>
+      <c r="J33" s="2">
         <v>6</v>
       </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="str">
+        <f>_xlfn.CONCAT("x", ROUND(AVERAGE(G22:G33), 0))</f>
+        <v>x9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
@@ -2336,23 +2437,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D16:S16"/>
-    <mergeCell ref="D5:S5"/>
-    <mergeCell ref="D6:S6"/>
-    <mergeCell ref="D7:S7"/>
-    <mergeCell ref="D8:S8"/>
-    <mergeCell ref="D9:S9"/>
-    <mergeCell ref="D10:S10"/>
-    <mergeCell ref="D11:S11"/>
-    <mergeCell ref="D12:S12"/>
-    <mergeCell ref="D13:S13"/>
-    <mergeCell ref="D14:S14"/>
-    <mergeCell ref="D15:S15"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C19:S19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C19:U19"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D17:S17"/>
+    <mergeCell ref="D17:U17"/>
+    <mergeCell ref="D16:U16"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="D6:U6"/>
+    <mergeCell ref="D7:U7"/>
+    <mergeCell ref="D8:U8"/>
+    <mergeCell ref="D9:U9"/>
+    <mergeCell ref="D10:U10"/>
+    <mergeCell ref="D11:U11"/>
+    <mergeCell ref="D12:U12"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="D14:U14"/>
+    <mergeCell ref="D15:U15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BenchResults/Benchmark.xlsx
+++ b/BenchResults/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkovtun\source\repos\NoStringEvaluating\BenchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7EEDDC-04DB-4811-9FFA-4F5AF167E47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5464166-D20D-4179-AD1A-6713D57A972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -224,6 +224,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,40 +409,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>217</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1434</c:v>
+                  <c:v>1064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1630</c:v>
+                  <c:v>1324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11206</c:v>
+                  <c:v>9849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>616</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3676</c:v>
+                  <c:v>3402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>579</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1580</c:v>
+                  <c:v>1487</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5173</c:v>
+                  <c:v>4512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1207</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,40 +520,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>163</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>305</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>646</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>252</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,365 +1748,365 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="14"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2124,18 +2127,18 @@
         <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2">
-        <v>367188</v>
+        <v>406250</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <f>ROUND(D22/I22, 0)</f>
         <v>2</v>
       </c>
-      <c r="I22" s="5">
-        <v>41</v>
+      <c r="I22" s="10">
+        <v>44</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -2146,10 +2149,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2">
-        <v>148553</v>
+        <v>148515</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2157,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2">
         <v>4</v>
@@ -2169,15 +2172,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2">
-        <v>273561</v>
+        <v>273523</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2">
         <v>62</v>
@@ -2192,21 +2195,21 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>1434</v>
+        <v>1064</v>
       </c>
       <c r="E25" s="2">
-        <v>1133085</v>
+        <v>1133047</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -2215,18 +2218,18 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>1630</v>
+        <v>1324</v>
       </c>
       <c r="E26" s="2">
-        <v>1656573</v>
+        <v>1656536</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J26" s="2">
         <v>5</v>
@@ -2238,15 +2241,15 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>11206</v>
+        <v>9849</v>
       </c>
       <c r="E27" s="2">
-        <v>6954262</v>
+        <v>6954197</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I27" s="2">
         <v>343</v>
@@ -2261,18 +2264,18 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>616</v>
+        <v>512</v>
       </c>
       <c r="E28" s="2">
-        <v>609626</v>
+        <v>609593</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J28" s="2">
         <v>5</v>
@@ -2285,10 +2288,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>3676</v>
+        <v>3402</v>
       </c>
       <c r="E29" s="2">
-        <v>3305437</v>
+        <v>3305393</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -2296,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="2">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="J29" s="2">
         <v>8</v>
@@ -2309,18 +2312,18 @@
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>579</v>
+        <v>521</v>
       </c>
       <c r="E30" s="2">
-        <v>875165</v>
+        <v>875129</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J30" s="2">
         <v>5</v>
@@ -2333,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>1580</v>
+        <v>1487</v>
       </c>
       <c r="E31" s="2">
-        <v>2234671</v>
+        <v>2234638</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -2344,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="J31" s="2">
         <v>7</v>
@@ -2357,10 +2360,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <v>5173</v>
+        <v>4512</v>
       </c>
       <c r="E32" s="2">
-        <v>9227212</v>
+        <v>7570919</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -2368,7 +2371,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="2">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="J32" s="2">
         <v>11</v>
@@ -2381,10 +2384,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>1207</v>
+        <v>1270</v>
       </c>
       <c r="E33" s="5">
-        <v>1656506</v>
+        <v>1656470</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="2">
@@ -2392,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J33" s="2">
         <v>6</v>
@@ -2403,7 +2406,7 @@
       <c r="B34" s="6"/>
       <c r="G34" s="2" t="str">
         <f>_xlfn.CONCAT("x", ROUND(AVERAGE(G22:G33), 0))</f>
-        <v>x9</v>
+        <v>x8</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">

--- a/BenchResults/Benchmark.xlsx
+++ b/BenchResults/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkovtun\source\repos\NoStringEvaluating\BenchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5464166-D20D-4179-AD1A-6713D57A972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A7A518-7B68-44B4-BE49-63E1D2BE80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,10 +87,10 @@
     <t>Arg1 * (Arg2 + Arg3) - Arg4 / (Arg5 - Arg6) + 45 * Arg7 + ((Arg8 * 56 + (12 + Arg9))) - Arg10</t>
   </si>
   <si>
-    <t>if(Arg1; add(56 + 9 / 12 * 123.596; or(78; 9; 5; 2; 4; 5; 8; 7); 45;5); 9) *     24 + 52 -33</t>
+    <t>Allocated, KB</t>
   </si>
   <si>
-    <t>Allocated, KB</t>
+    <t>if(Arg1 &gt; 0; add(56 + 9 / 12 * 123.596; or(78; 9; 5; 2; 4; 5; 8; 7); 45;5); 9) *     24 + 52 -33</t>
   </si>
 </sst>
 </file>
@@ -227,6 +227,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,15 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,7 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:U13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1748,370 +1750,370 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="14">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2119,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
@@ -2440,11 +2442,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C19:U19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D17:U17"/>
     <mergeCell ref="D16:U16"/>
     <mergeCell ref="D5:U5"/>
     <mergeCell ref="D6:U6"/>
@@ -2457,6 +2454,11 @@
     <mergeCell ref="D13:U13"/>
     <mergeCell ref="D14:U14"/>
     <mergeCell ref="D15:U15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C19:U19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D17:U17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BenchResults/Benchmark.xlsx
+++ b/BenchResults/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkovtun\source\repos\NoStringEvaluating\BenchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A7A518-7B68-44B4-BE49-63E1D2BE80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA451DC2-BBC2-4CA4-8786-37C641F04EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,40 +409,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>105</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1064</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1324</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9849</c:v>
+                  <c:v>2552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3402</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>521</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1487</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4512</c:v>
+                  <c:v>8567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1270</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,40 +520,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>343</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>161</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>359</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>279</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>251</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,9 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:U13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2129,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2">
         <v>406250</v>
@@ -2137,10 +2135,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <f>ROUND(D22/I22, 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="10">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -2151,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
         <v>148515</v>
@@ -2162,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J23" s="2">
         <v>4</v>
@@ -2174,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="E24" s="2">
         <v>273523</v>
@@ -2182,10 +2180,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J24" s="2">
         <v>4</v>
@@ -2197,18 +2195,18 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>1064</v>
+        <v>480</v>
       </c>
       <c r="E25" s="2">
-        <v>1133047</v>
+        <v>1133048</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J25" s="2">
         <v>4</v>
@@ -2220,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>1324</v>
+        <v>597</v>
       </c>
       <c r="E26" s="2">
         <v>1656536</v>
@@ -2228,10 +2226,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J26" s="2">
         <v>5</v>
@@ -2243,18 +2241,18 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>9849</v>
+        <v>2552</v>
       </c>
       <c r="E27" s="2">
-        <v>6954197</v>
+        <v>6954199</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="J27" s="2">
         <v>10</v>
@@ -2266,18 +2264,18 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>512</v>
+        <v>352</v>
       </c>
       <c r="E28" s="2">
-        <v>609593</v>
+        <v>609594</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J28" s="2">
         <v>5</v>
@@ -2290,18 +2288,18 @@
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>3402</v>
+        <v>1342</v>
       </c>
       <c r="E29" s="2">
-        <v>3305393</v>
+        <v>3305395</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I29" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="J29" s="2">
         <v>8</v>
@@ -2314,15 +2312,15 @@
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>521</v>
+        <v>323</v>
       </c>
       <c r="E30" s="2">
-        <v>875129</v>
+        <v>804816</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
         <v>149</v>
@@ -2338,18 +2336,18 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>1487</v>
+        <v>695</v>
       </c>
       <c r="E31" s="2">
-        <v>2234638</v>
+        <v>2094014</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J31" s="2">
         <v>7</v>
@@ -2362,18 +2360,18 @@
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <v>4512</v>
+        <v>8567</v>
       </c>
       <c r="E32" s="2">
-        <v>7570919</v>
+        <v>9360871</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I32" s="2">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="J32" s="2">
         <v>11</v>
@@ -2386,18 +2384,18 @@
         <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>1270</v>
+        <v>717</v>
       </c>
       <c r="E33" s="5">
-        <v>1656470</v>
+        <v>1515846</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J33" s="2">
         <v>6</v>
@@ -2408,7 +2406,7 @@
       <c r="B34" s="6"/>
       <c r="G34" s="2" t="str">
         <f>_xlfn.CONCAT("x", ROUND(AVERAGE(G22:G33), 0))</f>
-        <v>x8</v>
+        <v>x4</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">

--- a/BenchResults/Benchmark.xlsx
+++ b/BenchResults/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkovtun\source\repos\NoStringEvaluating\BenchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA451DC2-BBC2-4CA4-8786-37C641F04EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280B9D76-FDB9-403F-B290-4AD401AD3C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,15 +227,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,6 +235,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,40 +409,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>597</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2552</c:v>
+                  <c:v>2519</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>352</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1342</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>323</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>695</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8567</c:v>
+                  <c:v>8540</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>717</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,40 +520,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>54</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>351</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>370</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>284</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>622</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,365 +1748,365 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="11"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
         <v>406250</v>
@@ -2135,10 +2135,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <f>ROUND(D22/I22, 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="10">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -2149,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" s="2">
         <v>148515</v>
@@ -2160,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2">
         <v>4</v>
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2">
         <v>273523</v>
@@ -2180,10 +2180,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2">
         <v>4</v>
@@ -2195,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="E25" s="2">
         <v>1133048</v>
@@ -2203,13 +2203,13 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="E26" s="2">
         <v>1656536</v>
@@ -2226,10 +2226,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2">
         <v>5</v>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>2552</v>
+        <v>2519</v>
       </c>
       <c r="E27" s="2">
         <v>6954199</v>
@@ -2249,10 +2249,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="J27" s="2">
         <v>10</v>
@@ -2264,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E28" s="2">
         <v>609594</v>
@@ -2272,10 +2272,10 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="J28" s="2">
         <v>5</v>
@@ -2288,7 +2288,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="E29" s="2">
         <v>3305395</v>
@@ -2299,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="2">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="J29" s="2">
         <v>8</v>
@@ -2312,7 +2312,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E30" s="2">
         <v>804816</v>
@@ -2320,10 +2320,10 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J30" s="2">
         <v>5</v>
@@ -2336,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E31" s="2">
         <v>2094014</v>
@@ -2344,10 +2344,10 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="J31" s="2">
         <v>7</v>
@@ -2360,7 +2360,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <v>8567</v>
+        <v>8540</v>
       </c>
       <c r="E32" s="2">
         <v>9360871</v>
@@ -2368,10 +2368,10 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2">
-        <v>622</v>
+        <v>553</v>
       </c>
       <c r="J32" s="2">
         <v>11</v>
@@ -2384,7 +2384,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="E33" s="5">
         <v>1515846</v>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J33" s="2">
         <v>6</v>
@@ -2406,7 +2406,7 @@
       <c r="B34" s="6"/>
       <c r="G34" s="2" t="str">
         <f>_xlfn.CONCAT("x", ROUND(AVERAGE(G22:G33), 0))</f>
-        <v>x4</v>
+        <v>x5</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
@@ -2440,6 +2440,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C19:U19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D17:U17"/>
     <mergeCell ref="D16:U16"/>
     <mergeCell ref="D5:U5"/>
     <mergeCell ref="D6:U6"/>
@@ -2452,11 +2457,6 @@
     <mergeCell ref="D13:U13"/>
     <mergeCell ref="D14:U14"/>
     <mergeCell ref="D15:U15"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C19:U19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D17:U17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BenchResults/Benchmark.xlsx
+++ b/BenchResults/Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkovtun\source\repos\NoStringEvaluating\BenchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280B9D76-FDB9-403F-B290-4AD401AD3C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637055B-9867-4401-ACF0-9B3AF89F0850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Formula</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>if(Arg1 &gt; 0; add(56 + 9 / 12 * 123.596; or(78; 9; 5; 2; 4; 5; 8; 7); 45;5); 9) *     24 + 52 -33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2094009</t>
   </si>
 </sst>
 </file>
@@ -409,40 +412,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>455</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>580</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2519</c:v>
+                  <c:v>2368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1331</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>321</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>694</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8540</c:v>
+                  <c:v>7669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>684</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,40 +523,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>286</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>258</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>553</c:v>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>226</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,22 +1732,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +1795,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +1820,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -1842,7 +1845,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -1867,7 +1870,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>3</v>
       </c>
@@ -1892,7 +1895,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>4</v>
       </c>
@@ -1917,7 +1920,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>5</v>
       </c>
@@ -1942,7 +1945,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>6</v>
       </c>
@@ -1967,7 +1970,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>7</v>
       </c>
@@ -1992,7 +1995,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>8</v>
       </c>
@@ -2017,7 +2020,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>9</v>
       </c>
@@ -2042,7 +2045,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>10</v>
       </c>
@@ -2067,7 +2070,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
@@ -2090,7 +2093,7 @@
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2108,7 @@
       </c>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -2122,37 +2125,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2">
-        <v>406250</v>
+        <v>406251</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <f>ROUND(D22/I22, 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="10">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
-        <v>148515</v>
+        <v>148516</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2160,19 +2163,19 @@
         <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2">
         <v>273523</v>
@@ -2183,68 +2186,68 @@
         <v>3</v>
       </c>
       <c r="I24" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="E25" s="2">
-        <v>1133048</v>
+        <v>1133045</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J25" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="E26" s="2">
-        <v>1656536</v>
+        <v>1656533</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>76</v>
+      </c>
+      <c r="J26" s="2">
         <v>7</v>
       </c>
-      <c r="I26" s="2">
-        <v>85</v>
-      </c>
-      <c r="J26" s="2">
-        <v>5</v>
-      </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>2519</v>
+        <v>2368</v>
       </c>
       <c r="E27" s="2">
-        <v>6954199</v>
+        <v>6954188</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -2252,46 +2255,46 @@
         <v>9</v>
       </c>
       <c r="I27" s="2">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="J27" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2">
-        <v>609594</v>
+        <v>609582</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="J28" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="3">
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>1331</v>
+        <v>1105</v>
       </c>
       <c r="E29" s="2">
-        <v>3305395</v>
+        <v>3305396</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -2299,95 +2302,95 @@
         <v>4</v>
       </c>
       <c r="I29" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="J29" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="3">
         <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="E30" s="2">
-        <v>804816</v>
+        <v>804815</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="J30" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="3">
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>694</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2094014</v>
+        <v>617</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="J31" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="3">
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <v>8540</v>
+        <v>7669</v>
       </c>
       <c r="E32" s="2">
-        <v>9360871</v>
+        <v>9360855</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J32" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="3">
         <v>10</v>
       </c>
       <c r="D33" s="5">
-        <v>684</v>
+        <v>627</v>
       </c>
       <c r="E33" s="5">
-        <v>1515846</v>
+        <v>1515841</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="2">
@@ -2395,46 +2398,46 @@
         <v>3</v>
       </c>
       <c r="I33" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J33" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="G34" s="2" t="str">
         <f>_xlfn.CONCAT("x", ROUND(AVERAGE(G22:G33), 0))</f>
         <v>x5</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
